--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1100730.725946919</v>
+        <v>-1103587.597081584</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>184.8704167984745</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>127.5087960002391</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>160.9516618022284</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>17.68986220408588</v>
+      </c>
+      <c r="Y2" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="X2" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.086122300725</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>34.92041296071469</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.03155909969695</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>23.43375830553084</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.48344123413502</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>299.9154604304229</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>299.9154604304234</v>
+        <v>299.9154604304229</v>
       </c>
       <c r="F5" t="n">
-        <v>229.1540317321075</v>
+        <v>13.02739205636012</v>
       </c>
       <c r="G5" t="n">
-        <v>12.70889480163085</v>
+        <v>299.9154604304229</v>
       </c>
       <c r="H5" t="n">
-        <v>299.9154604304234</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>110.4767683580351</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.7413030857667</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1381454907562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>110.7364929127435</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9556889604145</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.83194554107058</v>
       </c>
       <c r="I6" t="n">
-        <v>41.61395130777604</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.99074626324767</v>
+        <v>13.99074626324771</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.64970439955157</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.5708071230249</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8500775939488</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8274708134053</v>
+        <v>130.0238116185332</v>
       </c>
       <c r="H7" t="n">
-        <v>151.8825238068737</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.460599772379</v>
       </c>
       <c r="J7" t="n">
-        <v>11.09912598139587</v>
+        <v>11.0991259813959</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>203.739817301814</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.9742347357805</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>213.0674207852967</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>51.50197495890691</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,13 +1187,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>292.760846528264</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>22.71303679942841</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>81.46264465980435</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>125.2851635392057</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890404</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.34531439065093</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>18.70843787977127</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>180.3302385618265</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>101.5730368512064</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.2435806730866</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>5.890337106877586</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>103.5745801383492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3317,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,10 +3430,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352486</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208.6853424684429</v>
+        <v>353.3942309514151</v>
       </c>
       <c r="C2" t="n">
-        <v>208.6853424684429</v>
+        <v>353.3942309514151</v>
       </c>
       <c r="D2" t="n">
-        <v>208.6853424684429</v>
+        <v>353.3942309514151</v>
       </c>
       <c r="E2" t="n">
-        <v>21.94754772250906</v>
+        <v>163.9744459349304</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>157.028945185727</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>143.7988106099108</v>
       </c>
       <c r="H2" t="n">
         <v>15.00204697330559</v>
@@ -4328,7 +4328,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058939</v>
@@ -4337,10 +4337,10 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
@@ -4358,22 +4358,22 @@
         <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>587.5249125014124</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U2" t="n">
-        <v>587.5249125014124</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V2" t="n">
-        <v>587.5249125014124</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W2" t="n">
-        <v>398.1051274849276</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X2" t="n">
-        <v>208.6853424684429</v>
+        <v>542.8140159678999</v>
       </c>
       <c r="Y2" t="n">
-        <v>208.6853424684429</v>
+        <v>353.3942309514151</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.9896342275476</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464206</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330559</v>
@@ -4422,7 +4422,7 @@
         <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4434,25 +4434,25 @@
         <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>409.399488203391</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="X3" t="n">
-        <v>335.9896342275476</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="Y3" t="n">
-        <v>335.9896342275476</v>
+        <v>219.9797031869063</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.8429936158252</v>
+        <v>188.7891493205209</v>
       </c>
       <c r="C4" t="n">
-        <v>181.8429936158252</v>
+        <v>188.7891493205209</v>
       </c>
       <c r="D4" t="n">
-        <v>181.8429936158252</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E4" t="n">
-        <v>181.8429936158252</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F4" t="n">
-        <v>181.8429936158252</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
         <v>38.67250990818523</v>
@@ -4498,40 +4498,40 @@
         <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677754</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143042</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S4" t="n">
-        <v>560.6825636487947</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="T4" t="n">
-        <v>371.26277863231</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="U4" t="n">
-        <v>371.26277863231</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="V4" t="n">
-        <v>371.26277863231</v>
+        <v>378.2089343370056</v>
       </c>
       <c r="W4" t="n">
-        <v>371.26277863231</v>
+        <v>378.2089343370056</v>
       </c>
       <c r="X4" t="n">
-        <v>371.26277863231</v>
+        <v>378.2089343370056</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.8429936158252</v>
+        <v>188.7891493205209</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>985.7817375946565</v>
+        <v>945.9869472865844</v>
       </c>
       <c r="C5" t="n">
-        <v>985.7817375946565</v>
+        <v>643.0420377609046</v>
       </c>
       <c r="D5" t="n">
-        <v>985.7817375946565</v>
+        <v>643.0420377609046</v>
       </c>
       <c r="E5" t="n">
-        <v>682.8368280689763</v>
+        <v>340.0971282352248</v>
       </c>
       <c r="F5" t="n">
-        <v>451.3681091476556</v>
+        <v>326.9381463601136</v>
       </c>
       <c r="G5" t="n">
-        <v>438.5308416712608</v>
+        <v>23.99323683443383</v>
       </c>
       <c r="H5" t="n">
-        <v>135.5859321455805</v>
+        <v>23.99323683443383</v>
       </c>
       <c r="I5" t="n">
-        <v>23.99323683443387</v>
+        <v>23.99323683443383</v>
       </c>
       <c r="J5" t="n">
-        <v>62.70545777823963</v>
+        <v>62.70545777823872</v>
       </c>
       <c r="K5" t="n">
-        <v>171.4635601109399</v>
+        <v>171.4635601109389</v>
       </c>
       <c r="L5" t="n">
-        <v>343.2893649618538</v>
+        <v>343.2893649618527</v>
       </c>
       <c r="M5" t="n">
-        <v>566.1481175907725</v>
+        <v>566.1481175907712</v>
       </c>
       <c r="N5" t="n">
-        <v>797.2267662077127</v>
+        <v>797.2267662077112</v>
       </c>
       <c r="O5" t="n">
-        <v>1002.092520230225</v>
+        <v>1002.092520230223</v>
       </c>
       <c r="P5" t="n">
-        <v>1142.439700692751</v>
+        <v>1142.439700692749</v>
       </c>
       <c r="Q5" t="n">
-        <v>1199.661841721694</v>
+        <v>1199.661841721692</v>
       </c>
       <c r="R5" t="n">
-        <v>1199.661841721694</v>
+        <v>1199.661841721692</v>
       </c>
       <c r="S5" t="n">
-        <v>1199.661841721694</v>
+        <v>1199.661841721692</v>
       </c>
       <c r="T5" t="n">
-        <v>985.7817375946565</v>
+        <v>1199.661841721692</v>
       </c>
       <c r="U5" t="n">
-        <v>985.7817375946565</v>
+        <v>945.9869472865844</v>
       </c>
       <c r="V5" t="n">
-        <v>985.7817375946565</v>
+        <v>945.9869472865844</v>
       </c>
       <c r="W5" t="n">
-        <v>985.7817375946565</v>
+        <v>945.9869472865844</v>
       </c>
       <c r="X5" t="n">
-        <v>985.7817375946565</v>
+        <v>945.9869472865844</v>
       </c>
       <c r="Y5" t="n">
-        <v>985.7817375946565</v>
+        <v>945.9869472865844</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>769.9179758186335</v>
+        <v>272.7578945169685</v>
       </c>
       <c r="C6" t="n">
-        <v>658.062932472428</v>
+        <v>272.7578945169685</v>
       </c>
       <c r="D6" t="n">
-        <v>509.1285228111767</v>
+        <v>123.8234848557173</v>
       </c>
       <c r="E6" t="n">
-        <v>349.8910678057211</v>
+        <v>123.8234848557173</v>
       </c>
       <c r="F6" t="n">
-        <v>203.3565098326062</v>
+        <v>123.8234848557173</v>
       </c>
       <c r="G6" t="n">
-        <v>66.02753108471271</v>
+        <v>123.8234848557173</v>
       </c>
       <c r="H6" t="n">
-        <v>66.02753108471271</v>
+        <v>23.99323683443383</v>
       </c>
       <c r="I6" t="n">
-        <v>23.99323683443387</v>
+        <v>23.99323683443383</v>
       </c>
       <c r="J6" t="n">
-        <v>153.0622484533129</v>
+        <v>28.23212346630804</v>
       </c>
       <c r="K6" t="n">
-        <v>251.5223153098893</v>
+        <v>251.522315309888</v>
       </c>
       <c r="L6" t="n">
-        <v>412.6753689226765</v>
+        <v>412.6753689226751</v>
       </c>
       <c r="M6" t="n">
-        <v>620.0902495625874</v>
+        <v>620.0902495625859</v>
       </c>
       <c r="N6" t="n">
-        <v>847.4034298265444</v>
+        <v>847.4034298265429</v>
       </c>
       <c r="O6" t="n">
-        <v>1033.130785334928</v>
+        <v>1033.130785334926</v>
       </c>
       <c r="P6" t="n">
-        <v>1162.860295900026</v>
+        <v>1162.860295900024</v>
       </c>
       <c r="Q6" t="n">
-        <v>1199.661841721694</v>
+        <v>1199.661841721692</v>
       </c>
       <c r="R6" t="n">
-        <v>1185.52977478912</v>
+        <v>1185.529774789118</v>
       </c>
       <c r="S6" t="n">
-        <v>1185.52977478912</v>
+        <v>1140.42906327442</v>
       </c>
       <c r="T6" t="n">
-        <v>1185.52977478912</v>
+        <v>943.8928944632833</v>
       </c>
       <c r="U6" t="n">
-        <v>1185.52977478912</v>
+        <v>715.7615029542441</v>
       </c>
       <c r="V6" t="n">
-        <v>1185.52977478912</v>
+        <v>480.6093947225013</v>
       </c>
       <c r="W6" t="n">
-        <v>1185.52977478912</v>
+        <v>480.6093947225013</v>
       </c>
       <c r="X6" t="n">
-        <v>977.6782745835874</v>
+        <v>272.7578945169685</v>
       </c>
       <c r="Y6" t="n">
-        <v>769.9179758186335</v>
+        <v>272.7578945169685</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>672.9598931205288</v>
+        <v>457.1552150879045</v>
       </c>
       <c r="C7" t="n">
-        <v>504.0237101926219</v>
+        <v>288.2190321599976</v>
       </c>
       <c r="D7" t="n">
-        <v>504.0237101926219</v>
+        <v>288.2190321599976</v>
       </c>
       <c r="E7" t="n">
-        <v>504.0237101926219</v>
+        <v>288.2190321599976</v>
       </c>
       <c r="F7" t="n">
-        <v>357.1337626947115</v>
+        <v>288.2190321599976</v>
       </c>
       <c r="G7" t="n">
-        <v>188.6211659134941</v>
+        <v>156.8818487069338</v>
       </c>
       <c r="H7" t="n">
-        <v>35.20447519948021</v>
+        <v>156.8818487069338</v>
       </c>
       <c r="I7" t="n">
-        <v>35.20447519948021</v>
+        <v>35.2044751994802</v>
       </c>
       <c r="J7" t="n">
-        <v>23.99323683443387</v>
+        <v>23.99323683443383</v>
       </c>
       <c r="K7" t="n">
-        <v>135.7731927788544</v>
+        <v>135.7731927788543</v>
       </c>
       <c r="L7" t="n">
-        <v>334.3394864988003</v>
+        <v>334.3394864988002</v>
       </c>
       <c r="M7" t="n">
-        <v>554.0889252722278</v>
+        <v>554.0889252722276</v>
       </c>
       <c r="N7" t="n">
-        <v>774.0478299776224</v>
+        <v>774.0478299776222</v>
       </c>
       <c r="O7" t="n">
-        <v>961.1991843389371</v>
+        <v>961.1991843389369</v>
       </c>
       <c r="P7" t="n">
         <v>1097.818817161698</v>
@@ -4750,25 +4750,25 @@
         <v>1108.972089218904</v>
       </c>
       <c r="S7" t="n">
-        <v>1108.972089218904</v>
+        <v>903.1742939645462</v>
       </c>
       <c r="T7" t="n">
-        <v>1108.972089218904</v>
+        <v>677.9477942314346</v>
       </c>
       <c r="U7" t="n">
-        <v>1108.972089218904</v>
+        <v>677.9477942314346</v>
       </c>
       <c r="V7" t="n">
-        <v>893.752472264059</v>
+        <v>677.9477942314346</v>
       </c>
       <c r="W7" t="n">
-        <v>893.752472264059</v>
+        <v>677.9477942314346</v>
       </c>
       <c r="X7" t="n">
-        <v>893.752472264059</v>
+        <v>677.9477942314346</v>
       </c>
       <c r="Y7" t="n">
-        <v>672.9598931205288</v>
+        <v>457.1552150879045</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>884.184933127857</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C8" t="n">
-        <v>884.184933127857</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>525.9192345211065</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
         <v>473.8970375929177</v>
@@ -4793,25 +4793,25 @@
         <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1602.113565392654</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.784773191979</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="Y8" t="n">
-        <v>1270.784773191979</v>
+        <v>1228.647807131574</v>
       </c>
     </row>
     <row r="9">
@@ -4863,31 +4863,31 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
         <v>1081.114527508758</v>
@@ -4899,10 +4899,10 @@
         <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.930966067699</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.7763443906351</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="C10" t="n">
-        <v>793.7763443906351</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="D10" t="n">
-        <v>643.6597049782994</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>450.2576490525863</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>282.2711843608649</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>133.5322862243711</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.765895288652</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W10" t="n">
-        <v>1021.765895288652</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X10" t="n">
-        <v>793.7763443906351</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="Y10" t="n">
-        <v>793.7763443906351</v>
+        <v>597.1475965504967</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5021,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5048,40 +5048,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290468</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5227,22 +5227,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058934</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159286</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400699</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812163</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998272</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998272</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998272</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998272</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>2045.209862480145</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1790.525374274258</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1501.108204237298</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138397</v>
+        <v>1501.108204237298</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703096</v>
+        <v>1280.315625093767</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.547769317909</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900021</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,16 +5990,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1578.981115722978</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1350.99156482496</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,16 +6956,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,19 +7008,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
         <v>949.9304447718133</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,13 +7090,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
@@ -7318,10 +7318,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7561,19 +7561,19 @@
         <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8146,13 +8146,13 @@
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>75.41988959484648</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777598</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.65006546197375</v>
+        <v>52.65006546197381</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>13.19223203823188</v>
+        <v>139.2832673786396</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>168.743458178064</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.9418658837474</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>189.3850301059832</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>52.49221925397833</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>92.12028678808259</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.2393389614438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>121.5862749664526</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>105.8542358274176</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>47.04243616700597</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>67.52345255978815</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.58839950885067</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>211.5151132204107</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>182.9484181982418</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943218</v>
+        <v>169252.1408943219</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,31 +26320,31 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225014</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225014</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
+        <v>205260.4424660712</v>
+      </c>
+      <c r="M2" t="n">
         <v>205260.442466071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>124409.1910170497</v>
+        <v>124409.1910170493</v>
       </c>
       <c r="D3" t="n">
-        <v>353194.3280459895</v>
+        <v>353194.3280459901</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>28925.5569022358</v>
+        <v>28925.55690223568</v>
       </c>
       <c r="L3" t="n">
-        <v>105648.0699388664</v>
+        <v>105648.0699388665</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>195261.4364935756</v>
       </c>
       <c r="C4" t="n">
-        <v>244130.5972050409</v>
+        <v>244130.5972050411</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979383</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184277</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="L4" t="n">
         <v>21597.66737493621</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493626</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="O4" t="n">
         <v>21597.66737493623</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493628</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>65928.22056882466</v>
+        <v>65928.22056882462</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-674351.9985317128</v>
+        <v>-674712.0815474301</v>
       </c>
       <c r="C6" t="n">
-        <v>-229207.5663248444</v>
+        <v>-229207.5663248442</v>
       </c>
       <c r="D6" t="n">
-        <v>-386026.8887177017</v>
+        <v>-386026.8887177022</v>
       </c>
       <c r="E6" t="n">
-        <v>-420428.1296377946</v>
+        <v>-420462.8675632299</v>
       </c>
       <c r="F6" t="n">
-        <v>87057.31198675168</v>
+        <v>87022.57406131597</v>
       </c>
       <c r="G6" t="n">
-        <v>87057.31198675162</v>
+        <v>87022.57406131597</v>
       </c>
       <c r="H6" t="n">
-        <v>87057.31198675158</v>
+        <v>87022.57406131606</v>
       </c>
       <c r="I6" t="n">
-        <v>87057.31198675187</v>
+        <v>87022.57406131594</v>
       </c>
       <c r="J6" t="n">
-        <v>37992.36725820701</v>
+        <v>37957.62933277138</v>
       </c>
       <c r="K6" t="n">
-        <v>58131.75508451585</v>
+        <v>58097.01715908023</v>
       </c>
       <c r="L6" t="n">
-        <v>-25149.41070164702</v>
+        <v>-25149.41070164695</v>
       </c>
       <c r="M6" t="n">
-        <v>-52108.63449170717</v>
+        <v>-52108.63449170731</v>
       </c>
       <c r="N6" t="n">
-        <v>80498.65923721931</v>
+        <v>80498.65923721928</v>
       </c>
       <c r="O6" t="n">
         <v>80498.65923721934</v>
       </c>
       <c r="P6" t="n">
-        <v>80498.65923721928</v>
+        <v>80498.65923721927</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>645.2183749841703</v>
+        <v>645.2183749841701</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>299.9154604304234</v>
+        <v>299.9154604304229</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>96.74843407126571</v>
+        <v>96.74843407126548</v>
       </c>
       <c r="D3" t="n">
-        <v>288.8465171333688</v>
+        <v>288.8465171333693</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>112.3898732641036</v>
+        <v>112.3898732641031</v>
       </c>
       <c r="D4" t="n">
-        <v>340.6693716696153</v>
+        <v>340.6693716696159</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>112.3898732641036</v>
+        <v>112.3898732641031</v>
       </c>
       <c r="L4" t="n">
-        <v>340.6693716696153</v>
+        <v>340.6693716696159</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>112.3898732641036</v>
+        <v>112.3898732641031</v>
       </c>
       <c r="L4" t="n">
-        <v>340.6693716696153</v>
+        <v>340.6693716696159</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>197.0599532737873</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>352.0412384743831</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,22 +27458,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>45.3589432639138</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -27506,22 +27506,22 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
         <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>170.8525722427628</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9703761030172</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>207.654202089693</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>65.35743134058464</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>82.01490964183836</v>
+        <v>82.01490964183887</v>
       </c>
       <c r="F5" t="n">
-        <v>177.722014009604</v>
+        <v>393.8486536853513</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>112.7934343712079</v>
       </c>
       <c r="H5" t="n">
-        <v>12.99514999566883</v>
+        <v>312.9106104260923</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>110.4767683580352</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>149.9128787522683</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.7413030857667</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1381454907562</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>61.97200607557225</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.9556889604145</v>
       </c>
       <c r="H6" t="n">
-        <v>98.83194554107058</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>41.61395130777606</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>145.9048709334797</v>
+        <v>101.2551665339281</v>
       </c>
       <c r="T6" t="n">
-        <v>194.5708071230249</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8500775939488</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>36.80365919487215</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>151.8825238068737</v>
       </c>
       <c r="I7" t="n">
-        <v>120.460599772379</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>124.9778162514038</v>
+        <v>124.9778162514039</v>
       </c>
       <c r="S7" t="n">
-        <v>203.739817301814</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.9742347357805</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2555652540334</v>
       </c>
       <c r="V7" t="n">
-        <v>39.07022253853131</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>330.4283951133549</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>56.48012218914903</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>123.7209258471408</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.33395054409621</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.707434855954489e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5938427135042</v>
+        <v>2.593842713504199</v>
       </c>
       <c r="H5" t="n">
-        <v>26.5641916896749</v>
+        <v>26.56419168967489</v>
       </c>
       <c r="I5" t="n">
-        <v>99.99912121237078</v>
+        <v>99.99912121237074</v>
       </c>
       <c r="J5" t="n">
-        <v>220.1491580052773</v>
+        <v>220.1491580052772</v>
       </c>
       <c r="K5" t="n">
-        <v>329.9465200679102</v>
+        <v>329.9465200679101</v>
       </c>
       <c r="L5" t="n">
-        <v>409.3278340113144</v>
+        <v>409.3278340113143</v>
       </c>
       <c r="M5" t="n">
-        <v>455.4560843675947</v>
+        <v>455.4560843675945</v>
       </c>
       <c r="N5" t="n">
-        <v>462.8258399773385</v>
+        <v>462.8258399773384</v>
       </c>
       <c r="O5" t="n">
-        <v>437.0333164949312</v>
+        <v>437.033316494931</v>
       </c>
       <c r="P5" t="n">
-        <v>372.9978245052961</v>
+        <v>372.997824505296</v>
       </c>
       <c r="Q5" t="n">
-        <v>280.1058323279269</v>
+        <v>280.1058323279268</v>
       </c>
       <c r="R5" t="n">
-        <v>162.9354723521584</v>
+        <v>162.9354723521583</v>
       </c>
       <c r="S5" t="n">
-        <v>59.10719083397702</v>
+        <v>59.107190833977</v>
       </c>
       <c r="T5" t="n">
         <v>11.35454647836464</v>
       </c>
       <c r="U5" t="n">
-        <v>0.207507417080336</v>
+        <v>0.2075074170803359</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.38782820279614</v>
+        <v>1.387828202796139</v>
       </c>
       <c r="H6" t="n">
-        <v>13.40349869542588</v>
+        <v>13.40349869542587</v>
       </c>
       <c r="I6" t="n">
-        <v>47.78268154363904</v>
+        <v>47.78268154363901</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1193303352266</v>
+        <v>131.1193303352265</v>
       </c>
       <c r="K6" t="n">
         <v>224.1038199225679</v>
       </c>
       <c r="L6" t="n">
-        <v>301.3352420150128</v>
+        <v>301.3352420150127</v>
       </c>
       <c r="M6" t="n">
-        <v>351.6440143663727</v>
+        <v>351.6440143663726</v>
       </c>
       <c r="N6" t="n">
-        <v>360.9509850772294</v>
+        <v>360.9509850772293</v>
       </c>
       <c r="O6" t="n">
-        <v>330.1996338468517</v>
+        <v>330.1996338468516</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0143170760454</v>
+        <v>265.0143170760452</v>
       </c>
       <c r="Q6" t="n">
         <v>177.1550526937669</v>
       </c>
       <c r="R6" t="n">
-        <v>86.16708788939546</v>
+        <v>86.16708788939542</v>
       </c>
       <c r="S6" t="n">
-        <v>25.77830017035811</v>
+        <v>25.7783001703581</v>
       </c>
       <c r="T6" t="n">
-        <v>5.593921571796719</v>
+        <v>5.593921571796717</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09130448702606186</v>
+        <v>0.09130448702606184</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.163508545053422</v>
+        <v>1.163508545053421</v>
       </c>
       <c r="H7" t="n">
         <v>10.34464870056588</v>
       </c>
       <c r="I7" t="n">
-        <v>34.98987515487927</v>
+        <v>34.98987515487926</v>
       </c>
       <c r="J7" t="n">
-        <v>82.2600541352769</v>
+        <v>82.26005413527687</v>
       </c>
       <c r="K7" t="n">
         <v>135.1785382343884</v>
@@ -31452,10 +31452,10 @@
         <v>172.9819885982151</v>
       </c>
       <c r="M7" t="n">
-        <v>182.3852531123286</v>
+        <v>182.3852531123285</v>
       </c>
       <c r="N7" t="n">
-        <v>178.0485394444024</v>
+        <v>178.0485394444023</v>
       </c>
       <c r="O7" t="n">
         <v>164.4566441680964</v>
@@ -31464,19 +31464,19 @@
         <v>140.7210698490065</v>
       </c>
       <c r="Q7" t="n">
-        <v>97.42797462260971</v>
+        <v>97.42797462260968</v>
       </c>
       <c r="R7" t="n">
-        <v>52.31557512576565</v>
+        <v>52.31557512576564</v>
       </c>
       <c r="S7" t="n">
-        <v>20.27678073515826</v>
+        <v>20.27678073515825</v>
       </c>
       <c r="T7" t="n">
-        <v>4.971354692500983</v>
+        <v>4.971354692500981</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06346410245745944</v>
+        <v>0.06346410245745941</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32075,31 +32075,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>216.8572963387063</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32312,13 +32312,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>150.7833302198378</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>364.3208035245826</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,22 +33266,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34866,13 +34866,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>99.08507489005474</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068212</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>39.10325347859103</v>
+        <v>39.10325347859094</v>
       </c>
       <c r="K5" t="n">
-        <v>109.8566690229296</v>
+        <v>109.8566690229295</v>
       </c>
       <c r="L5" t="n">
-        <v>173.5614190413272</v>
+        <v>173.561419041327</v>
       </c>
       <c r="M5" t="n">
-        <v>225.109851140322</v>
+        <v>225.1098511403218</v>
       </c>
       <c r="N5" t="n">
-        <v>233.4127763807476</v>
+        <v>233.4127763807475</v>
       </c>
       <c r="O5" t="n">
-        <v>206.9351050732444</v>
+        <v>206.9351050732443</v>
       </c>
       <c r="P5" t="n">
-        <v>141.7648287500266</v>
+        <v>141.7648287500265</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.80014245347743</v>
+        <v>57.80014245347732</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>130.3727390089687</v>
+        <v>4.2817036685598</v>
       </c>
       <c r="K6" t="n">
-        <v>99.45461298644079</v>
+        <v>225.5456483268485</v>
       </c>
       <c r="L6" t="n">
-        <v>162.7808622351386</v>
+        <v>162.7808622351385</v>
       </c>
       <c r="M6" t="n">
-        <v>209.5099804443544</v>
+        <v>209.5099804443543</v>
       </c>
       <c r="N6" t="n">
-        <v>229.6092729938961</v>
+        <v>229.609272993896</v>
       </c>
       <c r="O6" t="n">
-        <v>187.6033894024073</v>
+        <v>187.6033894024072</v>
       </c>
       <c r="P6" t="n">
-        <v>131.0399096617151</v>
+        <v>131.039909661715</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.1732786077454</v>
+        <v>37.17327860774535</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>112.9090464085056</v>
+        <v>112.9090464085055</v>
       </c>
       <c r="L7" t="n">
         <v>200.5720138585312</v>
       </c>
       <c r="M7" t="n">
-        <v>221.9691300741692</v>
+        <v>221.9691300741691</v>
       </c>
       <c r="N7" t="n">
-        <v>222.180711823631</v>
+        <v>222.1807118236309</v>
       </c>
       <c r="O7" t="n">
-        <v>189.0417720821361</v>
+        <v>189.041772082136</v>
       </c>
       <c r="P7" t="n">
-        <v>137.9996291139</v>
+        <v>137.9996291138999</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.26593137091533</v>
+        <v>11.2659313709153</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>418.4229873015963</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.4225882146019</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>90.0196696720396</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060436</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35960,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94570355317105</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.3390294385611</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,13 +36434,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37467,7 +37467,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
